--- a/medicine/Psychotrope/Gambrinus_(bière)/Gambrinus_(bière).xlsx
+++ b/medicine/Psychotrope/Gambrinus_(bière)/Gambrinus_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gambrinus_(bi%C3%A8re)</t>
+          <t>Gambrinus_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Gambrinus est une bière blonde tchèque de fermentation basse de type pils produite par la brasserie Gambrinus appartenant à la compagnie Plzeňský Prazdroj (ou Pilsner Urquell).
 Son nom vient de Jan primus (Jean Ier), duc de Brabant, qui vécut au XIIIe siècle. À l’issue de la victoire de Woeringen, voulant remercier ses hommes qui festoyaient, il escalada un empilement de tonneaux et se jucha à cheval sur le plus élevé, ponctuant la fin de sa harangue du premier toast de l'histoire, prétexte à une large rasade de bière. L’image d'un duc bon vivant s’est transmise à travers les siècles, et son nom, devenu Gambrinus, est porté par de nombreuses bières de par le monde, dont celle-ci.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gambrinus_(bi%C3%A8re)</t>
+          <t>Gambrinus_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Brasserie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le 25 juin 1869 que Martin Stelzer et Václav Daniel fondent la brasserie par action Gambrinus à Pilsen. Le 15 octobre 1870, sort le premier brassin de bière pils, inspirée par la découverte de la brasserie voisine (Pilsner Urquell). Le 18 décembre, la première marque déposée concerne Erste Pilsner Actien Brauerei - Pilsner Bier. Elle sera suivie en 1909, par la marque Pilsner Kaiserquell.
 En 1919, la marque Plzeňský Gambrinus est enregistrée. En 1928, les brasseries Staroplzenecký et Štěnovický fusionnent avec Gambrinus.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gambrinus_(bi%C3%A8re)</t>
+          <t>Gambrinus_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,19 +565,196 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La gamme dispose de quatre variétés aujourd'hui.
-Světlý
-Avec un volume d'alcool de 4,1 %
-Premium
-Avec un volume d'alcool de 5 %
-11° Excelent
-Avec un volume d'alcool de 4,7 %.
-Dry
-Avec un volume d'alcool réduit à 3,8 % et une teneur en sucre minimale.
-Autres marques
-D'autres variétés qui ne sont plus distribuées :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gamme dispose de quatre variétés aujourd'hui.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gambrinus_(bière)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gambrinus_(bi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Světlý</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec un volume d'alcool de 4,1 %
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gambrinus_(bière)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gambrinus_(bi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Premium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec un volume d'alcool de 5 %
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gambrinus_(bière)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gambrinus_(bi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11° Excelent</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec un volume d'alcool de 4,7 %.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gambrinus_(bière)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gambrinus_(bi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dry</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec un volume d'alcool réduit à 3,8 % et une teneur en sucre minimale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gambrinus_(bière)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gambrinus_(bi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres marques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>D'autres variétés qui ne sont plus distribuées :
 Master, bière sans alcool, titrant 0,5 % vol.
 Bilé, weizenbier (bière blanche), seule bière de fermentation haute du groupe, titrant 5,1 % vol.
 Osma, titrant 3 % vol.
